--- a/домашка.xlsx
+++ b/домашка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Юлин репозиторий\TMSRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FB8DB4-CEE9-4947-9D72-EAC63A2A3F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B23061D1-085E-4131-A49D-812435805663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,7 +996,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,9 +1008,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,9 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,6 +1046,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,6 +1064,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,6 +1081,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,19 +1100,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,23 +1127,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,12 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1496,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,10 +1518,10 @@
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="47" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -1541,8 +1540,8 @@
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1561,8 +1560,8 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1581,8 +1580,8 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1679,8 +1678,8 @@
       <c r="CN5" s="16"/>
     </row>
     <row r="6" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -1777,8 +1776,8 @@
       <c r="CN6" s="16"/>
     </row>
     <row r="7" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1875,8 +1874,8 @@
       <c r="CN7" s="16"/>
     </row>
     <row r="8" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1973,8 +1972,8 @@
       <c r="CN8" s="16"/>
     </row>
     <row r="9" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -2071,8 +2070,8 @@
       <c r="CN9" s="16"/>
     </row>
     <row r="10" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -2169,8 +2168,8 @@
       <c r="CN10" s="16"/>
     </row>
     <row r="11" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -2267,8 +2266,8 @@
       <c r="CN11" s="16"/>
     </row>
     <row r="12" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -2365,8 +2364,8 @@
       <c r="CN12" s="16"/>
     </row>
     <row r="13" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -2463,11 +2462,11 @@
       <c r="CN13" s="16"/>
     </row>
     <row r="14" spans="1:92" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="16"/>
@@ -2561,10 +2560,10 @@
       <c r="CN14" s="16"/>
     </row>
     <row r="15" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -2661,8 +2660,8 @@
       <c r="CN15" s="16"/>
     </row>
     <row r="16" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -2759,8 +2758,8 @@
       <c r="CN16" s="16"/>
     </row>
     <row r="17" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -2857,11 +2856,11 @@
       <c r="CN17" s="16"/>
     </row>
     <row r="18" spans="1:92" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="16"/>
@@ -2955,8 +2954,8 @@
       <c r="CN18" s="16"/>
     </row>
     <row r="19" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -3053,8 +3052,8 @@
       <c r="CN19" s="16"/>
     </row>
     <row r="20" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -3151,8 +3150,8 @@
       <c r="CN20" s="16"/>
     </row>
     <row r="21" spans="1:92" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -3249,8 +3248,8 @@
       <c r="CN21" s="16"/>
     </row>
     <row r="22" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -3347,8 +3346,8 @@
       <c r="CN22" s="16"/>
     </row>
     <row r="23" spans="1:92" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -3445,8 +3444,8 @@
       <c r="CN23" s="16"/>
     </row>
     <row r="24" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -3543,8 +3542,8 @@
       <c r="CN24" s="16"/>
     </row>
     <row r="25" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -3641,8 +3640,8 @@
       <c r="CN25" s="16"/>
     </row>
     <row r="26" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="29" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -3739,8 +3738,8 @@
       <c r="CN26" s="16"/>
     </row>
     <row r="27" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -3837,8 +3836,8 @@
       <c r="CN27" s="16"/>
     </row>
     <row r="28" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3935,10 +3934,10 @@
       <c r="CN28" s="16"/>
     </row>
     <row r="29" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -4035,8 +4034,8 @@
       <c r="CN29" s="16"/>
     </row>
     <row r="30" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -4133,8 +4132,8 @@
       <c r="CN30" s="16"/>
     </row>
     <row r="31" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="29" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -4231,8 +4230,8 @@
       <c r="CN31" s="16"/>
     </row>
     <row r="32" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -4329,8 +4328,8 @@
       <c r="CN32" s="16"/>
     </row>
     <row r="33" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -4542,1156 +4541,1156 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+    <row r="2" spans="1:8" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="31" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65">
+    <row r="3" spans="1:8" s="30" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+    <row r="4" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="70"/>
-    </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" s="30" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
         <v>3</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="65" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+    <row r="7" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="69"/>
-    </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:8" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="70"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+      <c r="A10" s="56">
         <v>4</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="72"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="72"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="72"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="14">
         <v>44749</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="72"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="72"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
-      <c r="H16" s="73"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="59">
         <v>5</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="72"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="72"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="72"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="14">
         <v>44749</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="72"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:8" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="72"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
-      <c r="H23" s="73"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60">
+      <c r="A24" s="59">
         <v>6</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="72"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="72"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="72"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="14">
         <v>44749</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="72"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="72"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="61"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
-      <c r="H30" s="73"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60">
+      <c r="A31" s="59">
         <v>7</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="58"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="62"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="58"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="63"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="58"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="14">
         <v>43651</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="58"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="58"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="61"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="61"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="59"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60">
+      <c r="A38" s="59">
         <v>8</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="58"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="58"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="58"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="14">
         <v>45178</v>
       </c>
-      <c r="F42" s="62"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="58"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="58"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="61"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="59"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="64"/>
     </row>
     <row r="45" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="59">
         <v>9</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="72"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="72"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="62"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="11" t="s">
         <v>129</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="72"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="11" t="s">
         <v>130</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="72"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="61"/>
       <c r="G50" s="61"/>
-      <c r="H50" s="73"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="50">
+      <c r="A51" s="49">
         <v>10</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="65" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="74" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="74" t="s">
+      <c r="G51" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H51" s="57" t="s">
+      <c r="H51" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="58"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="59"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="64"/>
     </row>
     <row r="54" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="60">
+      <c r="A54" s="59">
         <v>11</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G54" s="54" t="s">
+      <c r="G54" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H54" s="57" t="s">
+      <c r="H54" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="62"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="58"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="63"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="61"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="11" t="s">
         <v>141</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="59"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="64"/>
     </row>
     <row r="57" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="60">
+      <c r="A57" s="59">
         <v>12</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="54" t="s">
+      <c r="F57" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="G57" s="54" t="s">
+      <c r="G57" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="62"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="58"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="61"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="59"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="64"/>
     </row>
     <row r="60" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="60">
+      <c r="A60" s="59">
         <v>13</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="54" t="s">
+      <c r="G60" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H60" s="57" t="s">
+      <c r="H60" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="62"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="58"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="61"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
       <c r="D62" s="11" t="s">
         <v>146</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="59"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60">
+      <c r="A63" s="59">
         <v>14</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G63" s="54" t="s">
+      <c r="G63" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="71" t="s">
+      <c r="H63" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="62"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E64" s="8"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="72"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="54"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="62"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="11" t="s">
         <v>149</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="72"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="54"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="61"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="73"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="55"/>
     </row>
     <row r="67" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="63">
+      <c r="A67" s="74">
         <v>15</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="75" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="54" t="s">
+      <c r="G67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H67" s="71" t="s">
+      <c r="H67" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
       <c r="D68" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="72"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="11" t="s">
         <v>152</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="73"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="55"/>
     </row>
     <row r="70" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="60">
+      <c r="A70" s="59">
         <v>16</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="54" t="s">
+      <c r="F70" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="54" t="s">
+      <c r="G70" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="H70" s="57" t="s">
+      <c r="H70" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="62"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="58"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="61"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
       <c r="D72" s="11" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="59"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="60">
+      <c r="A73" s="59">
         <v>17</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="7"/>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="71" t="s">
+      <c r="H73" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="55"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="72"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="54"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="55"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="72"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="54"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="61"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="56"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="7" t="s">
         <v>49</v>
       </c>
@@ -5700,615 +5699,615 @@
       </c>
       <c r="F76" s="61"/>
       <c r="G76" s="61"/>
-      <c r="H76" s="73"/>
+      <c r="H76" s="55"/>
     </row>
     <row r="77" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="60">
+      <c r="A77" s="59">
         <v>18</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="7"/>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G77" s="54" t="s">
+      <c r="G77" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="62"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="72"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="54"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="62"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E79" s="7"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="72"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="54"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="61"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="11" t="s">
         <v>157</v>
       </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="73"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="55"/>
     </row>
     <row r="81" spans="1:8" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="60">
+      <c r="A81" s="59">
         <v>19</v>
       </c>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="54" t="s">
+      <c r="F81" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="54" t="s">
+      <c r="G81" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="55"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="72"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="54"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="62"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="55"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="57"/>
       <c r="D83" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="72"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="54"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="61"/>
       <c r="B84" s="61"/>
-      <c r="C84" s="56"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E84" s="14">
         <v>45178</v>
       </c>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="73"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="55"/>
     </row>
     <row r="85" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="60">
+      <c r="A85" s="59">
         <v>20</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E85" s="14"/>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G85" s="54" t="s">
+      <c r="G85" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="H85" s="57" t="s">
+      <c r="H85" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="62"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="14"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="58"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="61"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
       <c r="D87" s="10" t="s">
         <v>159</v>
       </c>
       <c r="E87" s="14"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="59"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="64"/>
     </row>
     <row r="88" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="60">
+      <c r="A88" s="59">
         <v>21</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E88" s="14"/>
-      <c r="F88" s="54" t="s">
+      <c r="F88" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G88" s="54" t="s">
+      <c r="G88" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="H88" s="71" t="s">
+      <c r="H88" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="62"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E89" s="14"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="72"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="61"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="10" t="s">
         <v>162</v>
       </c>
       <c r="E90" s="14"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="73"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="55"/>
     </row>
     <row r="91" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="60">
+      <c r="A91" s="59">
         <v>22</v>
       </c>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E91" s="14"/>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G91" s="54" t="s">
+      <c r="G91" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H91" s="71" t="s">
+      <c r="H91" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="62"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E92" s="14"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="72"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="61"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E93" s="14"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="73"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="55"/>
     </row>
     <row r="94" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="60">
+      <c r="A94" s="59">
         <v>23</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="B94" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E94" s="14"/>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="54" t="s">
+      <c r="G94" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H94" s="57" t="s">
+      <c r="H94" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="62"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E95" s="14"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="58"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="61"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="10" t="s">
         <v>164</v>
       </c>
       <c r="E96" s="14"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="59"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="64"/>
     </row>
     <row r="97" spans="1:8" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="60">
+      <c r="A97" s="59">
         <v>24</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E97" s="12"/>
-      <c r="F97" s="54" t="s">
+      <c r="F97" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="G97" s="54" t="s">
+      <c r="G97" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="H97" s="71" t="s">
+      <c r="H97" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="61"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E98" s="12"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="73"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="55"/>
     </row>
     <row r="99" spans="1:8" s="13" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="60">
+      <c r="A99" s="59">
         <v>25</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="54" t="s">
+      <c r="C99" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E99" s="12"/>
-      <c r="F99" s="54" t="s">
+      <c r="F99" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="54" t="s">
+      <c r="G99" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="71" t="s">
+      <c r="H99" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="62"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="60" t="s">
+      <c r="A100" s="60"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="59" t="s">
         <v>56</v>
       </c>
       <c r="E100" s="12"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="72"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="54"/>
     </row>
     <row r="101" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="62"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="62"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="60"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="72"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="54"/>
     </row>
     <row r="102" spans="1:8" s="13" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="62"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="62"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="12"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="72"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="54"/>
     </row>
     <row r="103" spans="1:8" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="61"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="61"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="73"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="55"/>
     </row>
     <row r="104" spans="1:8" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="60">
+      <c r="A104" s="59">
         <v>26</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E104" s="12"/>
-      <c r="F104" s="54" t="s">
+      <c r="F104" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G104" s="54" t="s">
+      <c r="G104" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="H104" s="57" t="s">
+      <c r="H104" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="62"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="38" t="s">
+      <c r="A105" s="60"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E105" s="12"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="58"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="63"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="61"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="56"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E106" s="7"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="59"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="64"/>
     </row>
     <row r="107" spans="1:8" s="13" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="60">
+      <c r="A107" s="59">
         <v>27</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="12"/>
-      <c r="F107" s="54" t="s">
+      <c r="F107" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="G107" s="54" t="s">
+      <c r="G107" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="H107" s="71" t="s">
+      <c r="H107" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="62"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="38" t="s">
+      <c r="A108" s="60"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E108" s="7"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="72"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="54"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="61"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E109" s="7"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="73"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="55"/>
     </row>
     <row r="110" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="60">
+      <c r="A110" s="59">
         <v>28</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="38" t="s">
+      <c r="D110" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E110" s="7"/>
-      <c r="F110" s="54" t="s">
+      <c r="F110" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G110" s="54" t="s">
+      <c r="G110" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="H110" s="71" t="s">
+      <c r="H110" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="62"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="38" t="s">
+      <c r="A111" s="60"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E111" s="7"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="55"/>
-      <c r="H111" s="72"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="54"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="61"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="7" t="s">
         <v>171</v>
       </c>
       <c r="E112" s="7"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="73"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="55"/>
     </row>
     <row r="113" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="54">
+      <c r="A113" s="56">
         <v>29</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="38" t="s">
+      <c r="D113" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E113" s="7"/>
-      <c r="F113" s="54" t="s">
+      <c r="F113" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="G113" s="54" t="s">
+      <c r="G113" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="H113" s="57" t="s">
+      <c r="H113" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="55"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="38" t="s">
+      <c r="A114" s="57"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="36" t="s">
         <v>173</v>
       </c>
       <c r="E114" s="7"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="58"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="56"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E115" s="7"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="59"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="64"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
@@ -6482,153 +6481,6 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="F81:F84"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="H73:H76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="H38:H44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="H10:H16"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="H31:H37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="G24:G30"/>
-    <mergeCell ref="H24:H30"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
     <mergeCell ref="A113:A115"/>
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="C113:C115"/>
@@ -6653,6 +6505,153 @@
     <mergeCell ref="A99:A103"/>
     <mergeCell ref="H110:H112"/>
     <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="H31:H37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="G24:G30"/>
+    <mergeCell ref="H24:H30"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="H73:H76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="F81:F84"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="G107:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6709,839 +6708,839 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77">
+    <row r="2" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="42" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="42" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+    <row r="5" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="42" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="38" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="77" t="s">
+    <row r="8" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="78" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+    <row r="9" spans="1:9" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="44" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="10" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="42" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="79"/>
+    </row>
+    <row r="10" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="78"/>
-    </row>
-    <row r="11" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="45"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="79"/>
+    </row>
+    <row r="11" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77">
+      <c r="H11" s="70"/>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78">
         <v>4</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="78" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="78" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+    <row r="13" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="78"/>
-    </row>
-    <row r="14" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="79"/>
+    </row>
+    <row r="14" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="78"/>
-    </row>
-    <row r="15" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="79"/>
+    </row>
+    <row r="15" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="79"/>
+    </row>
+    <row r="16" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
       <c r="G16" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="78"/>
-    </row>
-    <row r="17" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="79"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="78"/>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="79"/>
+    </row>
+    <row r="18" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="80"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="79"/>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77">
+      <c r="H18" s="70"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78">
         <v>5</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="78" t="s">
         <v>177</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="78" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
+    <row r="20" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="79"/>
+    </row>
+    <row r="21" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="78"/>
-    </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="79"/>
+    </row>
+    <row r="22" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="79"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="78"/>
-    </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="79"/>
+    </row>
+    <row r="23" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="79"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="78"/>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="78"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="79"/>
+    </row>
+    <row r="24" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="79"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="78"/>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="79"/>
+    </row>
+    <row r="25" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="80"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="79"/>
-    </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="77" t="s">
+      <c r="H25" s="70"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="65" t="s">
+      <c r="I26" s="68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="44">
+    <row r="27" spans="1:9" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="41">
         <v>6</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="42" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-    </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="47" t="s">
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+    </row>
+    <row r="28" spans="1:9" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-    </row>
-    <row r="29" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77">
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78">
         <v>7</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="44" t="s">
+    <row r="30" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="79"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-    </row>
-    <row r="31" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="47" t="s">
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+    </row>
+    <row r="31" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="80"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-    </row>
-    <row r="32" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77">
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78">
         <v>8</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="78"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="44" t="s">
+    <row r="33" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="79"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-    </row>
-    <row r="34" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="79"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="47" t="s">
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+    </row>
+    <row r="34" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="80"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-    </row>
-    <row r="35" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77">
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+    </row>
+    <row r="35" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="78">
         <v>9</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="78" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="65" t="s">
+      <c r="H35" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="47" t="s">
+    <row r="36" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="79"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-    </row>
-    <row r="37" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="47" t="s">
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+    </row>
+    <row r="37" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="80"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="60">
+      <c r="A38" s="59">
         <v>10</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="59" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="59" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="49" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="62"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="83" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="62"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="61"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="56"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="61"/>
     </row>
     <row r="42" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60">
+      <c r="A42" s="59">
         <v>11</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="59" t="s">
         <v>177</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="60" t="s">
+      <c r="I42" s="59" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="48" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
-      <c r="B44" s="56"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="F44" s="61"/>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="H44" s="56"/>
+      <c r="H44" s="58"/>
       <c r="I44" s="61"/>
     </row>
     <row r="45" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="59">
         <v>12</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="59" t="s">
         <v>177</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="54" t="s">
+      <c r="H45" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="59" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="48" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="62"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61"/>
-      <c r="B47" s="56"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
       <c r="F47" s="61"/>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H47" s="56"/>
+      <c r="H47" s="58"/>
       <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60">
+      <c r="A48" s="59">
         <v>13</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="59" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H48" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I48" s="54" t="s">
+      <c r="I48" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="48" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
     </row>
     <row r="50" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
-      <c r="B50" s="56"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -7549,26 +7548,26 @@
       <c r="G50" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="60">
+      <c r="A51" s="59">
         <v>14</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D51" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="60" t="s">
+      <c r="F51" s="59" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="11" t="s">
@@ -7578,12 +7577,12 @@
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="62"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="62"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="11" t="s">
         <v>215</v>
       </c>
@@ -7591,12 +7590,12 @@
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="62"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="62"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="11" t="s">
         <v>58</v>
       </c>
@@ -7605,10 +7604,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="61"/>
-      <c r="B54" s="56"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="61"/>
       <c r="D54" s="61"/>
-      <c r="E54" s="82"/>
+      <c r="E54" s="83"/>
       <c r="F54" s="61"/>
       <c r="G54" s="11" t="s">
         <v>59</v>
@@ -7621,50 +7620,50 @@
       </c>
     </row>
     <row r="55" spans="1:9" s="13" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60">
+      <c r="A55" s="59">
         <v>15</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="59" t="s">
         <v>177</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="54" t="s">
+      <c r="H55" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="I55" s="54" t="s">
+      <c r="I55" s="56" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
     </row>
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="61"/>
-      <c r="B57" s="56"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="61"/>
       <c r="D57" s="61"/>
       <c r="E57" s="61"/>
@@ -7672,60 +7671,44 @@
       <c r="G57" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C57" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="102">
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="H32:H34"/>
@@ -7748,38 +7731,54 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7790,7 +7789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -7801,7 +7800,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -7809,13 +7808,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>221</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -7823,19 +7822,19 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="84"/>
     </row>
     <row r="6" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="74" t="s">
         <v>223</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -7843,17 +7842,17 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="85" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="85"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="59" t="s">
         <v>226</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -7861,25 +7860,25 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="7" t="s">
         <v>231</v>
       </c>
